--- a/Bapuri/240808_발주서.xlsx
+++ b/Bapuri/240808_발주서.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,7 +760,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.18%</t>
+          <t>9.11%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.30%</t>
+          <t>2.28%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12.10%</t>
+          <t>12.01%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.09%</t>
+          <t>2.07%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.17%</t>
+          <t>4.14%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.30%</t>
+          <t>2.28%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>8.10%</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>1.36%</t>
         </is>
       </c>
       <c r="G15" s="10" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="F17" s="9" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>6.15%</t>
         </is>
       </c>
       <c r="G17" s="10" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F18" s="9" t="inlineStr">
         <is>
-          <t>11.36%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="G18" s="10" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="F19" s="9" t="inlineStr">
         <is>
-          <t>7.27%</t>
+          <t>7.22%</t>
         </is>
       </c>
       <c r="G19" s="10" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="F20" s="9" t="inlineStr">
         <is>
-          <t>1.16%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="G20" s="10" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="F21" s="9" t="inlineStr">
         <is>
-          <t>23.76%</t>
+          <t>23.59%</t>
         </is>
       </c>
       <c r="G21" s="10" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F22" s="9" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>0.71%</t>
         </is>
       </c>
       <c r="G22" s="10" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="F23" s="9" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>0.63%</t>
         </is>
       </c>
       <c r="G23" s="10" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="F24" s="14" t="inlineStr">
         <is>
-          <t>2.95%</t>
+          <t>2.93%</t>
         </is>
       </c>
       <c r="G24" s="15" t="inlineStr">
@@ -1356,32 +1356,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>씨제이프레시웨이</t>
+          <t>굴렁쇠</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>이츠랩 랩(3호_40cm*500m EA)</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18630.0</t>
+          <t>14800.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18,630</t>
+          <t>59,200</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>2.76%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1393,12 +1393,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>오병이어</t>
+          <t>제이원푸드</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>고추가루-보쌈</t>
+          <t>우리집김치</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t>14000.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>42,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.41%</t>
+          <t>1.96%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1428,116 +1428,42 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>오병이어</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>고추가루-중</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>10000.0</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>30,000</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.41%</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A27" s="16" t="inlineStr">
+        <is>
+          <t>예상매입</t>
+        </is>
+      </c>
+      <c r="B27" s="16" t="inlineStr"/>
+      <c r="C27" s="16" t="inlineStr"/>
+      <c r="D27" s="16" t="inlineStr"/>
+      <c r="E27" s="16" t="inlineStr">
+        <is>
+          <t>2,142,301</t>
+        </is>
+      </c>
+      <c r="F27" s="16" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G27" s="16" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>제이원푸드</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>냉동배추</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2300.0</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>6,900</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.32%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="16" t="inlineStr">
-        <is>
-          <t>예상매입</t>
-        </is>
-      </c>
-      <c r="B29" s="16" t="inlineStr"/>
-      <c r="C29" s="16" t="inlineStr"/>
-      <c r="D29" s="16" t="inlineStr"/>
-      <c r="E29" s="16" t="inlineStr">
-        <is>
-          <t>2,126,631</t>
-        </is>
-      </c>
-      <c r="F29" s="16" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="G29" s="16" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="17" t="inlineStr">
+      <c r="A28" s="17" t="inlineStr">
         <is>
           <t>예상매출</t>
         </is>
       </c>
-      <c r="B30" s="17" t="inlineStr">
+      <c r="B28" s="17" t="inlineStr">
         <is>
           <t>예상인원(중/석)</t>
         </is>
       </c>
-      <c r="C30" s="17" t="inlineStr"/>
-      <c r="D30" s="17" t="inlineStr"/>
-      <c r="E30" s="17" t="inlineStr"/>
-      <c r="F30" s="17" t="inlineStr"/>
-      <c r="G30" s="17" t="inlineStr"/>
+      <c r="C28" s="17" t="inlineStr"/>
+      <c r="D28" s="17" t="inlineStr"/>
+      <c r="E28" s="17" t="inlineStr"/>
+      <c r="F28" s="17" t="inlineStr"/>
+      <c r="G28" s="17" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
